--- a/biology/Botanique/Tacca/Tacca.xlsx
+++ b/biology/Botanique/Tacca/Tacca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les taccas[1] forment un genre de plante originaire des tropiques[2], le genre Tacca de la famille des Taccaceae (selon la classification classique) ou des Dioscoreaceae (selon la classification phylogénétique), qui est celle des ignames. Ce sont des monocotylédones herbacées vivaces. Le genre Tacca comprend plusieurs espèces, dont les tubercules racinaires âcres et amers[3] de certaines d'entre elles, s'adoucissent par la culture et fournissent par lavage une fécule blanche nourrissante[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les taccas forment un genre de plante originaire des tropiques, le genre Tacca de la famille des Taccaceae (selon la classification classique) ou des Dioscoreaceae (selon la classification phylogénétique), qui est celle des ignames. Ce sont des monocotylédones herbacées vivaces. Le genre Tacca comprend plusieurs espèces, dont les tubercules racinaires âcres et amers de certaines d'entre elles, s'adoucissent par la culture et fournissent par lavage une fécule blanche nourrissante.
 Tacca integrifolia est une plante des forêts pluviales d'Asie du Sud-Est depuis le Bhoutan, jusqu'en Malaisie.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Tacca compte une vingtaine d'espèces.
-Selon World Checklist of Selected Plant Families (WCSP)  (11 décembre 2016)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 décembre 2016) :
 Tacca ampliplacenta L.Zhang &amp; Q.J.Li (2008)
 Tacca ankaranensis Bard.-Vauc. (1997)
 Tacca bibracteata Drenth (1972 publ. 1973)
@@ -532,7 +546,7 @@
 Tacca plantaginea (Hance) Drenth (1972 publ. 1973)
 Tacca reducta P.C.Boyce &amp; S.Julia (2006).
 Tacca subflabellata P.P.Ling &amp; C.T.Ting (1982)
-Selon NCBI  (11 décembre 2016)[5] :
+Selon NCBI  (11 décembre 2016) :
 Tacca ampliplacenta
 Tacca artocarpifolia
 Tacca chantrieri
